--- a/Data/Sports_Info.xlsx
+++ b/Data/Sports_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vashi\Desktop\UPenn\Sem3\CIS550\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vashi\Desktop\UPenn\Sem3\CIS550\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Sports_Info.xlsx
+++ b/Data/Sports_Info.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,98 +605,98 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,162 +717,162 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,122 +885,122 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,37 +1013,40 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B57">
+    <sortCondition ref="A2:A57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>